--- a/_RESULTS/Error_budget/error_budget_area3c.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area3c.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2112798674733572</v>
+        <v>0.2113065694636272</v>
       </c>
       <c r="E2" t="n">
         <v>3.698176073217705</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.788961752975147</v>
+        <v>0.7891246906142133</v>
       </c>
       <c r="E3" t="n">
         <v>3.378462608708182</v>
